--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D27784-268D-46A6-815A-0228C22A496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB463BB-EC3E-41EB-8B07-4176C22FE8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="5256" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB463BB-EC3E-41EB-8B07-4176C22FE8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FAD25F-689C-43E0-83BC-F62697457E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="5256" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5508" yWindow="1056" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>long</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>descrption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,6 +469,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FAD25F-689C-43E0-83BC-F62697457E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC94609D-587E-4476-B686-8D11FC01EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="1056" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25170" yWindow="5235" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>long</t>
   </si>
@@ -39,10 +39,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>note1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NoteTemplate1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,15 +55,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descrption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3]</t>
+    <t>day5_Event01A+Day5_Event02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01B+Day5_Event02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1002,1005,1006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1003,1004,1005,1006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,20 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -443,48 +476,68 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugene\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC94609D-587E-4476-B686-8D11FC01EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{702D2CCC-F0AB-4656-AB68-EF51100A6C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25170" yWindow="5235" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,86 +42,94 @@
     <t>string</t>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>descrption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noteTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noteIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01AandDay5_Event02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NoteTemplate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noteTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noteIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descrption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day5_Event01A+Day5_Event02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day5_page1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day5_Event01B+Day5_Event02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1002,1005,1006]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day5_page2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01BandDay5_Event02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1003,1004,1005,1006]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day5_page3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>day5_Event03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoteTemplate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NoteTemplate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,1002,1005,1006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1003,1004,1005,1006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[1007,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,10 +164,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,7 +196,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +212,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -203,7 +224,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -220,7 +241,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -250,12 +271,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -285,6 +323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,19 +491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337B54D0-92BF-4A74-AE35-62C096AF4E31}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -462,24 +518,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -490,16 +546,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,13 +566,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -524,24 +580,20 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugene\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702D2CCC-F0AB-4656-AB68-EF51100A6C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494FA0F-19B7-4706-B46E-85C49306E503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
@@ -68,26 +68,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>day5_Event01AandDay5_Event02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NoteTemplate1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1001,1002,1005,1006]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>day5_page2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>day5_Event01BandDay5_Event02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NoteTemplate2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,6 +97,18 @@
   </si>
   <si>
     <t>[1007,1008]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01A_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01A_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1002,1003]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,13 +549,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,16 +563,16 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -580,16 +580,16 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494FA0F-19B7-4706-B46E-85C49306E503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3570BDDB-9AC1-4B8E-A027-A723522AF0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>long</t>
   </si>
@@ -76,14 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NoteTemplate2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1003,1004,1005,1006]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>day5_page3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NoteTemplate3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1007,1008]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,6 +97,10 @@
   </si>
   <si>
     <t>[1001,1002,1003]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1003,1004,1005]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,13 +541,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -580,20 +572,21 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3570BDDB-9AC1-4B8E-A027-A723522AF0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1C86E-26DE-4C12-A1A5-21A538C6AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>long</t>
   </si>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>day5_Event03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1007,1008]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>day5_Event01A_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,7 +92,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1003,1004,1005]</t>
+    <t>[1004,1005,1006]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01B_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event01B_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337B54D0-92BF-4A74-AE35-62C096AF4E31}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,13 +565,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -558,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -575,13 +599,30 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1C86E-26DE-4C12-A1A5-21A538C6AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583D834-8016-4077-808C-85DF0F11DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>long</t>
   </si>
@@ -126,6 +124,58 @@
   <si>
     <t>[1008]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page5</t>
+  </si>
+  <si>
+    <t>NoteTemplate5</t>
+  </si>
+  <si>
+    <t>[1009]</t>
+  </si>
+  <si>
+    <t>day5_page6</t>
+  </si>
+  <si>
+    <t>NoteTemplate6</t>
+  </si>
+  <si>
+    <t>[1010]</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_page7</t>
+  </si>
+  <si>
+    <t>day5_page8</t>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate7</t>
+  </si>
+  <si>
+    <t>NoteTemplate8</t>
+  </si>
+  <si>
+    <t>[1011]</t>
+  </si>
+  <si>
+    <t>[1012]</t>
   </si>
 </sst>
 </file>
@@ -508,22 +558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337B54D0-92BF-4A74-AE35-62C096AF4E31}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -557,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -574,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -591,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -608,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -623,6 +673,74 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583D834-8016-4077-808C-85DF0F11DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A37BF-1840-4251-AFC8-63FB74CB2EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,28 +144,12 @@
     <t>[1010]</t>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day5_page7</t>
   </si>
   <si>
     <t>day5_page8</t>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NoteTemplate7</t>
   </si>
   <si>
@@ -176,6 +160,22 @@
   </si>
   <si>
     <t>[1012]</t>
+  </si>
+  <si>
+    <t>day5_Event02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event02_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5_Event03_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,19 +561,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -675,7 +675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -683,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -700,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -709,38 +709,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A37BF-1840-4251-AFC8-63FB74CB2EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7CFC7B-BBE3-4AC7-9FEC-582ED25D501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>long</t>
   </si>
@@ -176,6 +176,117 @@
   <si>
     <t>day5_Event03_02</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day_1_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate9</t>
+  </si>
+  <si>
+    <t>NoteTemplate10</t>
+  </si>
+  <si>
+    <t>NoteTemplate11</t>
+  </si>
+  <si>
+    <t>NoteTemplate12</t>
+  </si>
+  <si>
+    <t>NoteTemplate13</t>
+  </si>
+  <si>
+    <t>NoteTemplate14</t>
+  </si>
+  <si>
+    <t>NoteTemplate15</t>
+  </si>
+  <si>
+    <t>NoteTemplate16</t>
+  </si>
+  <si>
+    <t>NoteTemplate17</t>
+  </si>
+  <si>
+    <t>NoteTemplate18</t>
+  </si>
+  <si>
+    <t>NoteTemplate19</t>
+  </si>
+  <si>
+    <t>Halo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1014]</t>
+  </si>
+  <si>
+    <t>[1015]</t>
+  </si>
+  <si>
+    <t>[1016]</t>
+  </si>
+  <si>
+    <t>[1017]</t>
+  </si>
+  <si>
+    <t>[1018]</t>
+  </si>
+  <si>
+    <t>[1019]</t>
+  </si>
+  <si>
+    <t>[1020]</t>
+  </si>
+  <si>
+    <t>[1021]</t>
+  </si>
+  <si>
+    <t>[1022]</t>
+  </si>
+  <si>
+    <t>[1023]</t>
   </si>
 </sst>
 </file>
@@ -558,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337B54D0-92BF-4A74-AE35-62C096AF4E31}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,7 +684,7 @@
     <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -607,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -624,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -641,7 +752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -658,7 +769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -675,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -692,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -709,7 +820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>107</v>
       </c>
@@ -726,7 +837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>108</v>
       </c>
@@ -742,6 +853,204 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/NotePage_Data.xlsx
+++ b/GameDesign/ExcelData/NotePage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7CFC7B-BBE3-4AC7-9FEC-582ED25D501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514E788-5ACF-4848-A85A-12EA00169D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A9ACA763-272E-45F6-9576-92E0E8D6A937}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>long</t>
   </si>
@@ -287,6 +287,65 @@
   </si>
   <si>
     <t>[1023]</t>
+  </si>
+  <si>
+    <t>Day2_E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_E2</t>
+  </si>
+  <si>
+    <t>Day2_E3</t>
+  </si>
+  <si>
+    <t>Day2_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate22</t>
+  </si>
+  <si>
+    <t>NoteTemplate23</t>
+  </si>
+  <si>
+    <t>NoteTemplate24</t>
+  </si>
+  <si>
+    <t>NoteTemplate25</t>
+  </si>
+  <si>
+    <t>NoteTemplate26</t>
+  </si>
+  <si>
+    <t>[1024]</t>
+  </si>
+  <si>
+    <t>[1025]</t>
+  </si>
+  <si>
+    <t>[1026]</t>
+  </si>
+  <si>
+    <t>[1027]</t>
+  </si>
+  <si>
+    <t>[1028]</t>
+  </si>
+  <si>
+    <t>[1029]</t>
   </si>
 </sst>
 </file>
@@ -669,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337B54D0-92BF-4A74-AE35-62C096AF4E31}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,6 +1111,108 @@
       </c>
       <c r="F21" s="1"/>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>120</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>121</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
